--- a/natmiOut/OldD7/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Slit1</t>
   </si>
   <si>
     <t>Gpc1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.160761453966503</v>
+        <v>0.1784056666666667</v>
       </c>
       <c r="H2">
-        <v>0.160761453966503</v>
+        <v>0.5352169999999999</v>
       </c>
       <c r="I2">
-        <v>0.1055282256891308</v>
+        <v>0.1010660696555743</v>
       </c>
       <c r="J2">
-        <v>0.1055282256891308</v>
+        <v>0.1010660696555743</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.422114966676761</v>
+        <v>1.628421</v>
       </c>
       <c r="N2">
-        <v>9.422114966676761</v>
+        <v>4.885263</v>
       </c>
       <c r="O2">
-        <v>0.351447299020941</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="P2">
-        <v>0.351447299020941</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="Q2">
-        <v>1.514712901482505</v>
+        <v>0.290519534119</v>
       </c>
       <c r="R2">
-        <v>1.514712901482505</v>
+        <v>2.614675807071</v>
       </c>
       <c r="S2">
-        <v>0.03708760988891728</v>
+        <v>0.004884463663218268</v>
       </c>
       <c r="T2">
-        <v>0.03708760988891728</v>
+        <v>0.004884463663218267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.160761453966503</v>
+        <v>0.1784056666666667</v>
       </c>
       <c r="H3">
-        <v>0.160761453966503</v>
+        <v>0.5352169999999999</v>
       </c>
       <c r="I3">
-        <v>0.1055282256891308</v>
+        <v>0.1010660696555743</v>
       </c>
       <c r="J3">
-        <v>0.1055282256891308</v>
+        <v>0.1010660696555743</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.523375653680503</v>
+        <v>9.459065000000001</v>
       </c>
       <c r="N3">
-        <v>0.523375653680503</v>
+        <v>28.377195</v>
       </c>
       <c r="O3">
-        <v>0.01952204579437525</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="P3">
-        <v>0.01952204579437525</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="Q3">
-        <v>0.08413863105634659</v>
+        <v>1.687550797368333</v>
       </c>
       <c r="R3">
-        <v>0.08413863105634659</v>
+        <v>15.187957176315</v>
       </c>
       <c r="S3">
-        <v>0.002060126854502378</v>
+        <v>0.02837255186497823</v>
       </c>
       <c r="T3">
-        <v>0.002060126854502378</v>
+        <v>0.02837255186497822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.160761453966503</v>
+        <v>0.1784056666666667</v>
       </c>
       <c r="H4">
-        <v>0.160761453966503</v>
+        <v>0.5352169999999999</v>
       </c>
       <c r="I4">
-        <v>0.1055282256891308</v>
+        <v>0.1010660696555743</v>
       </c>
       <c r="J4">
-        <v>0.1055282256891308</v>
+        <v>0.1010660696555743</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.8639769525187</v>
+        <v>0.6418243333333334</v>
       </c>
       <c r="N4">
-        <v>16.8639769525187</v>
+        <v>1.925473</v>
       </c>
       <c r="O4">
-        <v>0.6290306551846837</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="P4">
-        <v>0.6290306551846837</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="Q4">
-        <v>2.711077454544502</v>
+        <v>0.1145050980712222</v>
       </c>
       <c r="R4">
-        <v>2.711077454544502</v>
+        <v>1.030545882641</v>
       </c>
       <c r="S4">
-        <v>0.06638048894571109</v>
+        <v>0.001925157950146772</v>
       </c>
       <c r="T4">
-        <v>0.06638048894571109</v>
+        <v>0.001925157950146771</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.615857643459696</v>
+        <v>0.1784056666666667</v>
       </c>
       <c r="H5">
-        <v>0.615857643459696</v>
+        <v>0.5352169999999999</v>
       </c>
       <c r="I5">
-        <v>0.4042658410201534</v>
+        <v>0.1010660696555743</v>
       </c>
       <c r="J5">
-        <v>0.4042658410201534</v>
+        <v>0.1010660696555743</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.422114966676761</v>
+        <v>21.96489266666667</v>
       </c>
       <c r="N5">
-        <v>9.422114966676761</v>
+        <v>65.894678</v>
       </c>
       <c r="O5">
-        <v>0.351447299020941</v>
+        <v>0.6518893670423564</v>
       </c>
       <c r="P5">
-        <v>0.351447299020941</v>
+        <v>0.6518893670423563</v>
       </c>
       <c r="Q5">
-        <v>5.802681519783881</v>
+        <v>3.918661319458444</v>
       </c>
       <c r="R5">
-        <v>5.802681519783881</v>
+        <v>35.26795187512599</v>
       </c>
       <c r="S5">
-        <v>0.1420781379129621</v>
+        <v>0.06588389617723103</v>
       </c>
       <c r="T5">
-        <v>0.1420781379129621</v>
+        <v>0.06588389617723102</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.615857643459696</v>
+        <v>0.6251996666666666</v>
       </c>
       <c r="H6">
-        <v>0.615857643459696</v>
+        <v>1.875599</v>
       </c>
       <c r="I6">
-        <v>0.4042658410201534</v>
+        <v>0.3541730161409774</v>
       </c>
       <c r="J6">
-        <v>0.4042658410201534</v>
+        <v>0.3541730161409773</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.523375653680503</v>
+        <v>1.628421</v>
       </c>
       <c r="N6">
-        <v>0.523375653680503</v>
+        <v>4.885263</v>
       </c>
       <c r="O6">
-        <v>0.01952204579437525</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="P6">
-        <v>0.01952204579437525</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="Q6">
-        <v>0.3223248967198525</v>
+        <v>1.018088266393</v>
       </c>
       <c r="R6">
-        <v>0.3223248967198525</v>
+        <v>9.162794397536999</v>
       </c>
       <c r="S6">
-        <v>0.007892096261497061</v>
+        <v>0.01711697341876009</v>
       </c>
       <c r="T6">
-        <v>0.007892096261497061</v>
+        <v>0.01711697341876009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.615857643459696</v>
+        <v>0.6251996666666666</v>
       </c>
       <c r="H7">
-        <v>0.615857643459696</v>
+        <v>1.875599</v>
       </c>
       <c r="I7">
-        <v>0.4042658410201534</v>
+        <v>0.3541730161409774</v>
       </c>
       <c r="J7">
-        <v>0.4042658410201534</v>
+        <v>0.3541730161409773</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.8639769525187</v>
+        <v>9.459065000000001</v>
       </c>
       <c r="N7">
-        <v>16.8639769525187</v>
+        <v>28.377195</v>
       </c>
       <c r="O7">
-        <v>0.6290306551846837</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="P7">
-        <v>0.6290306551846837</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="Q7">
-        <v>10.38580910533679</v>
+        <v>5.913804284978333</v>
       </c>
       <c r="R7">
-        <v>10.38580910533679</v>
+        <v>53.22423856480499</v>
       </c>
       <c r="S7">
-        <v>0.2542956068456943</v>
+        <v>0.09942795147650635</v>
       </c>
       <c r="T7">
-        <v>0.2542956068456943</v>
+        <v>0.09942795147650632</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.746778580462184</v>
+        <v>0.6251996666666666</v>
       </c>
       <c r="H8">
-        <v>0.746778580462184</v>
+        <v>1.875599</v>
       </c>
       <c r="I8">
-        <v>0.4902059332907158</v>
+        <v>0.3541730161409774</v>
       </c>
       <c r="J8">
-        <v>0.4902059332907158</v>
+        <v>0.3541730161409773</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.422114966676761</v>
+        <v>0.6418243333333334</v>
       </c>
       <c r="N8">
-        <v>9.422114966676761</v>
+        <v>1.925473</v>
       </c>
       <c r="O8">
-        <v>0.351447299020941</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="P8">
-        <v>0.351447299020941</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="Q8">
-        <v>7.03623363976637</v>
+        <v>0.4012683592585556</v>
       </c>
       <c r="R8">
-        <v>7.03623363976637</v>
+        <v>3.611415233327</v>
       </c>
       <c r="S8">
-        <v>0.1722815512190616</v>
+        <v>0.006746467930086928</v>
       </c>
       <c r="T8">
-        <v>0.1722815512190616</v>
+        <v>0.006746467930086927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.746778580462184</v>
+        <v>0.6251996666666666</v>
       </c>
       <c r="H9">
-        <v>0.746778580462184</v>
+        <v>1.875599</v>
       </c>
       <c r="I9">
-        <v>0.4902059332907158</v>
+        <v>0.3541730161409774</v>
       </c>
       <c r="J9">
-        <v>0.4902059332907158</v>
+        <v>0.3541730161409773</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.523375653680503</v>
+        <v>21.96489266666667</v>
       </c>
       <c r="N9">
-        <v>0.523375653680503</v>
+        <v>65.894678</v>
       </c>
       <c r="O9">
-        <v>0.01952204579437525</v>
+        <v>0.6518893670423564</v>
       </c>
       <c r="P9">
-        <v>0.01952204579437525</v>
+        <v>0.6518893670423563</v>
       </c>
       <c r="Q9">
-        <v>0.3908457277039937</v>
+        <v>13.73244357356911</v>
       </c>
       <c r="R9">
-        <v>0.3908457277039937</v>
+        <v>123.591992162122</v>
       </c>
       <c r="S9">
-        <v>0.009569822678375814</v>
+        <v>0.2308816233156241</v>
       </c>
       <c r="T9">
-        <v>0.009569822678375814</v>
+        <v>0.230881623315624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.845399</v>
+      </c>
+      <c r="H10">
+        <v>2.536197</v>
+      </c>
+      <c r="I10">
+        <v>0.4789150244896156</v>
+      </c>
+      <c r="J10">
+        <v>0.4789150244896155</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.628421</v>
+      </c>
+      <c r="N10">
+        <v>4.885263</v>
+      </c>
+      <c r="O10">
+        <v>0.048329411442081</v>
+      </c>
+      <c r="P10">
+        <v>0.048329411442081</v>
+      </c>
+      <c r="Q10">
+        <v>1.376665484979</v>
+      </c>
+      <c r="R10">
+        <v>12.389989364811</v>
+      </c>
+      <c r="S10">
+        <v>0.02314568126435293</v>
+      </c>
+      <c r="T10">
+        <v>0.02314568126435293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.845399</v>
+      </c>
+      <c r="H11">
+        <v>2.536197</v>
+      </c>
+      <c r="I11">
+        <v>0.4789150244896156</v>
+      </c>
+      <c r="J11">
+        <v>0.4789150244896155</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.459065000000001</v>
+      </c>
+      <c r="N11">
+        <v>28.377195</v>
+      </c>
+      <c r="O11">
+        <v>0.2807327123897247</v>
+      </c>
+      <c r="P11">
+        <v>0.2807327123897247</v>
+      </c>
+      <c r="Q11">
+        <v>7.996684091935001</v>
+      </c>
+      <c r="R11">
+        <v>71.970156827415</v>
+      </c>
+      <c r="S11">
+        <v>0.1344471138291612</v>
+      </c>
+      <c r="T11">
+        <v>0.1344471138291612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.845399</v>
+      </c>
+      <c r="H12">
+        <v>2.536197</v>
+      </c>
+      <c r="I12">
+        <v>0.4789150244896156</v>
+      </c>
+      <c r="J12">
+        <v>0.4789150244896155</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6418243333333334</v>
+      </c>
+      <c r="N12">
+        <v>1.925473</v>
+      </c>
+      <c r="O12">
+        <v>0.01904850912583786</v>
+      </c>
+      <c r="P12">
+        <v>0.01904850912583786</v>
+      </c>
+      <c r="Q12">
+        <v>0.5425976495756668</v>
+      </c>
+      <c r="R12">
+        <v>4.883378846181</v>
+      </c>
+      <c r="S12">
+        <v>0.009122617214491304</v>
+      </c>
+      <c r="T12">
+        <v>0.009122617214491303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.845399</v>
+      </c>
+      <c r="H13">
+        <v>2.536197</v>
+      </c>
+      <c r="I13">
+        <v>0.4789150244896156</v>
+      </c>
+      <c r="J13">
+        <v>0.4789150244896155</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.96489266666667</v>
+      </c>
+      <c r="N13">
+        <v>65.894678</v>
+      </c>
+      <c r="O13">
+        <v>0.6518893670423564</v>
+      </c>
+      <c r="P13">
+        <v>0.6518893670423563</v>
+      </c>
+      <c r="Q13">
+        <v>18.56909829550733</v>
+      </c>
+      <c r="R13">
+        <v>167.121884659566</v>
+      </c>
+      <c r="S13">
+        <v>0.3121996121816101</v>
+      </c>
+      <c r="T13">
+        <v>0.3121996121816101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.746778580462184</v>
-      </c>
-      <c r="H10">
-        <v>0.746778580462184</v>
-      </c>
-      <c r="I10">
-        <v>0.4902059332907158</v>
-      </c>
-      <c r="J10">
-        <v>0.4902059332907158</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>16.8639769525187</v>
-      </c>
-      <c r="N10">
-        <v>16.8639769525187</v>
-      </c>
-      <c r="O10">
-        <v>0.6290306551846837</v>
-      </c>
-      <c r="P10">
-        <v>0.6290306551846837</v>
-      </c>
-      <c r="Q10">
-        <v>12.5936567695489</v>
-      </c>
-      <c r="R10">
-        <v>12.5936567695489</v>
-      </c>
-      <c r="S10">
-        <v>0.3083545593932783</v>
-      </c>
-      <c r="T10">
-        <v>0.3083545593932783</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1162336666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.348701</v>
+      </c>
+      <c r="I14">
+        <v>0.06584588971383273</v>
+      </c>
+      <c r="J14">
+        <v>0.06584588971383273</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.628421</v>
+      </c>
+      <c r="N14">
+        <v>4.885263</v>
+      </c>
+      <c r="O14">
+        <v>0.048329411442081</v>
+      </c>
+      <c r="P14">
+        <v>0.048329411442081</v>
+      </c>
+      <c r="Q14">
+        <v>0.189277343707</v>
+      </c>
+      <c r="R14">
+        <v>1.703496093363</v>
+      </c>
+      <c r="S14">
+        <v>0.003182293095749711</v>
+      </c>
+      <c r="T14">
+        <v>0.003182293095749711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1162336666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.348701</v>
+      </c>
+      <c r="I15">
+        <v>0.06584588971383273</v>
+      </c>
+      <c r="J15">
+        <v>0.06584588971383273</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.459065000000001</v>
+      </c>
+      <c r="N15">
+        <v>28.377195</v>
+      </c>
+      <c r="O15">
+        <v>0.2807327123897247</v>
+      </c>
+      <c r="P15">
+        <v>0.2807327123897247</v>
+      </c>
+      <c r="Q15">
+        <v>1.099461808188333</v>
+      </c>
+      <c r="R15">
+        <v>9.895156273694999</v>
+      </c>
+      <c r="S15">
+        <v>0.01848509521907894</v>
+      </c>
+      <c r="T15">
+        <v>0.01848509521907894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1162336666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.348701</v>
+      </c>
+      <c r="I16">
+        <v>0.06584588971383273</v>
+      </c>
+      <c r="J16">
+        <v>0.06584588971383273</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6418243333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.925473</v>
+      </c>
+      <c r="O16">
+        <v>0.01904850912583786</v>
+      </c>
+      <c r="P16">
+        <v>0.01904850912583786</v>
+      </c>
+      <c r="Q16">
+        <v>0.07460159561922224</v>
+      </c>
+      <c r="R16">
+        <v>0.6714143605730001</v>
+      </c>
+      <c r="S16">
+        <v>0.001254266031112856</v>
+      </c>
+      <c r="T16">
+        <v>0.001254266031112856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1162336666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.348701</v>
+      </c>
+      <c r="I17">
+        <v>0.06584588971383273</v>
+      </c>
+      <c r="J17">
+        <v>0.06584588971383273</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.96489266666667</v>
+      </c>
+      <c r="N17">
+        <v>65.894678</v>
+      </c>
+      <c r="O17">
+        <v>0.6518893670423564</v>
+      </c>
+      <c r="P17">
+        <v>0.6518893670423563</v>
+      </c>
+      <c r="Q17">
+        <v>2.553060012586445</v>
+      </c>
+      <c r="R17">
+        <v>22.977540113278</v>
+      </c>
+      <c r="S17">
+        <v>0.04292423536789123</v>
+      </c>
+      <c r="T17">
+        <v>0.04292423536789122</v>
       </c>
     </row>
   </sheetData>
